--- a/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>-2,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 1,4</t>
+          <t>-9,05; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,25</t>
+          <t>-9,67; 6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,58</t>
+          <t>-8,84; 5,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 1,64</t>
+          <t>-7,9; 11,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 6,3</t>
+          <t>-10,12; 6,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,84</t>
+          <t>-10,84; 7,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 5,71</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 14,82</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 7,66</t>
+          <t>-9,06; 8,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 5,82</t>
+          <t>-8,82; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 13,83</t>
+          <t>-2,05; 12,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 9,5</t>
+          <t>-4,62; 12,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,85</t>
+          <t>-10,29; 11,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 17,38</t>
+          <t>-10,01; 9,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 15,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 15,32</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-7,02%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 7,28</t>
+          <t>-27,22; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 15,73</t>
+          <t>-18,7; 4,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 12,88</t>
+          <t>-18,8; 21,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 8,67</t>
+          <t>-18,16; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 19,99</t>
+          <t>-28,09; 5,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 15,83</t>
+          <t>-19,18; 5,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 33,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-18,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 1,89</t>
+          <t>-6,83; 3,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,61</t>
+          <t>-7,4; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,59</t>
+          <t>-3,46; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 2,24</t>
+          <t>-3,97; 6,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,2</t>
+          <t>-7,82; 4,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,55</t>
+          <t>-8,26; 4,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 6,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 8,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,48%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.125153362312149</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.375329675678838</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.78276302764836</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.26907820520853</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.02458714781371994</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.016255475811359</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.01975391559675879</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.02791449930256886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 5,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 6,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; 5,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,9; 11,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-10,12; 6,78</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 7,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-9,49; 5,71</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 14,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.698788138775454</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.899573587584182</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.260979876236602</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.022038778217452</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.107090969335983</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1004291877635791</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.08831446213193847</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.09256237102726558</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.808677719339259</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.872755302110025</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.698086258368278</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.96334339921297</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.05942728302180425</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.08524756892104003</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.06877885514511278</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1479579066392023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,77%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 8,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 8,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 12,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 12,09</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; 11,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 9,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 15,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 15,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.556371461862804</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.09190670644244614</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.455418457898564</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.736984416121414</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.0182903505596065</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.00105377242523401</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.06154612225611469</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.04410005506650126</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,23</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,06%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-7,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-5,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.14988626615733</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.835012598971265</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.236154542688341</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.947177412390894</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1130858469483522</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.08640413465037569</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01321775136387553</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04444637192947538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-27,22; 5,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,7; 4,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; 21,51</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,16; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-28,09; 5,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-19,18; 5,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 33,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,16; 0,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.264677515072439</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.372487300049787</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.36655484899879</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.03243721141684</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.08885402943072418</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.116084559250447</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1619560239831907</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1659283632192719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.950794223064797</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.897290378599029</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4913594144118738</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.910356465855338</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1063423678045158</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.06141329899255028</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.00596377572980506</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05910356465855338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 3,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 3,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 5,82</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 6,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 4,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 4,12</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 6,8</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 8,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.84984246160717</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.35935094992738</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.53527438231619</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.65331066791179</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2556916889415003</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1757605251988627</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.209536585343484</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1865331066791179</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.826274485626271</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.806004437566602</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.35886671636023</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.05406707018302603</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.07696590132492724</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.342580679825546</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.65270934791989</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.315156717379373</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.35886111241712</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.712572044659544</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.03063760828591364</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.01513271805161266</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01531604404871071</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02016355271934123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.264066869588075</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.479850003541856</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.34545536728739</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.550923358059879</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.08126688494532257</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.07361724050004204</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03676695994701895</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0401621922908607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.69496997220229</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.391030440090731</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.16300508347239</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.387997499023246</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.03238238010091153</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.05264288517160035</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.07147630228531314</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.08916825258595468</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
